--- a/real-life-results_ExceLint-MTExcel.xlsx
+++ b/real-life-results_ExceLint-MTExcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0jmyon-goingpaper\MTExcel\data\20210125\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0jmyon-goingpaper\MTExcel\data\20210125\MTExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2130,15 +2130,6 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2191,10 +2182,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2475,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2499,17 +2499,17 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="10"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="84"/>
+      <c r="C1" s="105"/>
       <c r="D1" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="85" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="85"/>
+      <c r="E1" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="106"/>
       <c r="G1" s="19" t="s">
         <v>143</v>
       </c>
@@ -5744,8 +5744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5762,24 +5762,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="E1" s="106" t="s">
+      <c r="C1" s="107"/>
+      <c r="E1" s="108" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="86"/>
-      <c r="G1" s="107" t="s">
+      <c r="F1" s="107"/>
+      <c r="G1" s="103" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="87" t="s">
+      <c r="I1" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="J1" s="108" t="s">
+      <c r="J1" s="104" t="s">
         <v>264</v>
       </c>
       <c r="K1" s="13" t="s">
@@ -5872,13 +5872,13 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="89">
-        <v>0</v>
-      </c>
-      <c r="C4" s="89">
+      <c r="B4" s="86">
+        <v>0</v>
+      </c>
+      <c r="C4" s="86">
         <v>0</v>
       </c>
       <c r="E4">
@@ -5906,13 +5906,13 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="89">
-        <v>0</v>
-      </c>
-      <c r="C5" s="89">
+      <c r="B5" s="86">
+        <v>0</v>
+      </c>
+      <c r="C5" s="86">
         <v>0</v>
       </c>
       <c r="E5">
@@ -5940,13 +5940,13 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="89">
-        <v>0</v>
-      </c>
-      <c r="C6" s="89">
+      <c r="B6" s="86">
+        <v>0</v>
+      </c>
+      <c r="C6" s="86">
         <v>0</v>
       </c>
       <c r="E6">
@@ -5974,13 +5974,13 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="89">
-        <v>0</v>
-      </c>
-      <c r="C7" s="89">
+      <c r="B7" s="86">
+        <v>0</v>
+      </c>
+      <c r="C7" s="86">
         <v>0</v>
       </c>
       <c r="E7">
@@ -6008,13 +6008,13 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="89">
-        <v>0</v>
-      </c>
-      <c r="C8" s="89">
+      <c r="B8" s="86">
+        <v>0</v>
+      </c>
+      <c r="C8" s="86">
         <v>0</v>
       </c>
       <c r="E8">
@@ -6045,10 +6045,10 @@
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="90">
-        <v>1</v>
-      </c>
-      <c r="C9" s="90">
+      <c r="B9" s="87">
+        <v>1</v>
+      </c>
+      <c r="C9" s="87">
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -6122,13 +6122,13 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="89">
-        <v>0</v>
-      </c>
-      <c r="C11" s="89">
+      <c r="B11" s="86">
+        <v>0</v>
+      </c>
+      <c r="C11" s="86">
         <v>0</v>
       </c>
       <c r="E11">
@@ -6156,13 +6156,13 @@
       </c>
     </row>
     <row r="12" spans="1:17" s="6" customFormat="1">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="88">
-        <v>0</v>
-      </c>
-      <c r="C12" s="88">
+      <c r="B12" s="85">
+        <v>0</v>
+      </c>
+      <c r="C12" s="85">
         <v>0</v>
       </c>
       <c r="E12" s="6">
@@ -6190,13 +6190,13 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="89">
-        <v>0</v>
-      </c>
-      <c r="C13" s="89">
+      <c r="B13" s="86">
+        <v>0</v>
+      </c>
+      <c r="C13" s="86">
         <v>0</v>
       </c>
       <c r="E13">
@@ -6224,13 +6224,13 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="88" t="s">
+      <c r="A14" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="89">
-        <v>0</v>
-      </c>
-      <c r="C14" s="89">
+      <c r="B14" s="86">
+        <v>0</v>
+      </c>
+      <c r="C14" s="86">
         <v>0</v>
       </c>
       <c r="E14">
@@ -6251,11 +6251,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="91">
+      <c r="M14" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="88">
         <f t="shared" si="1"/>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -6301,13 +6301,13 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="89">
-        <v>0</v>
-      </c>
-      <c r="C16" s="89">
+      <c r="B16" s="86">
+        <v>0</v>
+      </c>
+      <c r="C16" s="86">
         <v>0</v>
       </c>
       <c r="E16">
@@ -6375,13 +6375,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="6" customFormat="1" ht="15" customHeight="1">
-      <c r="A18" s="88" t="s">
+      <c r="A18" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="88">
-        <v>0</v>
-      </c>
-      <c r="C18" s="88">
+      <c r="B18" s="85">
+        <v>0</v>
+      </c>
+      <c r="C18" s="85">
         <v>0</v>
       </c>
       <c r="E18" s="6">
@@ -6421,7 +6421,7 @@
       <c r="C19" s="1">
         <v>0</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="89" t="s">
         <v>207</v>
       </c>
       <c r="E19" s="5">
@@ -6455,13 +6455,13 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="88" t="s">
+      <c r="A20" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="B20" s="89">
-        <v>0</v>
-      </c>
-      <c r="C20" s="93">
+      <c r="B20" s="86">
+        <v>0</v>
+      </c>
+      <c r="C20" s="90">
         <v>0</v>
       </c>
       <c r="E20">
@@ -6489,13 +6489,13 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="89">
-        <v>0</v>
-      </c>
-      <c r="C21" s="89">
+      <c r="B21" s="86">
+        <v>0</v>
+      </c>
+      <c r="C21" s="86">
         <v>0</v>
       </c>
       <c r="E21">
@@ -6569,7 +6569,7 @@
       <c r="C23" s="2">
         <v>0</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="91" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="9">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" s="5">
         <f t="shared" si="0"/>
@@ -6695,7 +6695,7 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="92" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="5">
@@ -6732,13 +6732,13 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="89">
-        <v>0</v>
-      </c>
-      <c r="C27" s="93">
+      <c r="B27" s="86">
+        <v>0</v>
+      </c>
+      <c r="C27" s="90">
         <v>0</v>
       </c>
       <c r="E27">
@@ -6759,23 +6759,23 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="91">
+      <c r="M27" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="88">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="88" t="s">
+      <c r="A28" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="89">
-        <v>0</v>
-      </c>
-      <c r="C28" s="89">
+      <c r="B28" s="86">
+        <v>0</v>
+      </c>
+      <c r="C28" s="86">
         <v>0</v>
       </c>
       <c r="E28">
@@ -6809,7 +6809,7 @@
       <c r="B29" s="3">
         <v>0</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C29" s="93">
         <v>0</v>
       </c>
       <c r="E29" s="7">
@@ -6843,13 +6843,13 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="89">
-        <v>0</v>
-      </c>
-      <c r="C30" s="97">
+      <c r="B30" s="86">
+        <v>0</v>
+      </c>
+      <c r="C30" s="94">
         <v>0</v>
       </c>
       <c r="E30">
@@ -6883,10 +6883,10 @@
       <c r="B31" s="3">
         <v>6</v>
       </c>
-      <c r="C31" s="96">
+      <c r="C31" s="93">
         <v>9</v>
       </c>
-      <c r="D31" s="98" t="s">
+      <c r="D31" s="95" t="s">
         <v>216</v>
       </c>
       <c r="E31" s="7">
@@ -6908,7 +6908,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M31" s="7">
         <f t="shared" si="0"/>
@@ -6929,10 +6929,10 @@
       <c r="B32" s="2">
         <v>2</v>
       </c>
-      <c r="C32" s="99">
-        <v>0</v>
-      </c>
-      <c r="D32" s="100" t="s">
+      <c r="C32" s="96">
+        <v>0</v>
+      </c>
+      <c r="D32" s="97" t="s">
         <v>218</v>
       </c>
       <c r="E32" s="9">
@@ -6969,13 +6969,13 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="89">
-        <v>0</v>
-      </c>
-      <c r="C33" s="97">
+      <c r="B33" s="86">
+        <v>0</v>
+      </c>
+      <c r="C33" s="94">
         <v>0</v>
       </c>
       <c r="E33">
@@ -6996,11 +6996,11 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N33" s="91">
+      <c r="M33" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="88">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
@@ -7012,10 +7012,10 @@
       <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C34" s="101">
-        <v>0</v>
-      </c>
-      <c r="D34" s="95" t="s">
+      <c r="C34" s="98">
+        <v>0</v>
+      </c>
+      <c r="D34" s="92" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="5">
@@ -7055,16 +7055,16 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="28">
-      <c r="A35" s="88" t="s">
+      <c r="A35" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="89">
-        <v>2</v>
-      </c>
-      <c r="C35" s="97">
+      <c r="B35" s="86">
+        <v>2</v>
+      </c>
+      <c r="C35" s="94">
         <v>5</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="99" t="s">
         <v>54</v>
       </c>
       <c r="E35">
@@ -7085,11 +7085,11 @@
       <c r="L35">
         <v>2</v>
       </c>
-      <c r="M35" s="91">
+      <c r="M35" s="88">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N35" s="91" t="e">
+      <c r="N35" s="88" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
@@ -7101,10 +7101,10 @@
       <c r="B36" s="3">
         <v>4</v>
       </c>
-      <c r="C36" s="96">
+      <c r="C36" s="93">
         <v>3</v>
       </c>
-      <c r="D36" s="98" t="s">
+      <c r="D36" s="95" t="s">
         <v>220</v>
       </c>
       <c r="E36" s="7">
@@ -7150,10 +7150,10 @@
       <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="C37" s="101">
-        <v>0</v>
-      </c>
-      <c r="D37" s="95" t="s">
+      <c r="C37" s="98">
+        <v>0</v>
+      </c>
+      <c r="D37" s="92" t="s">
         <v>60</v>
       </c>
       <c r="E37" s="5">
@@ -7190,13 +7190,13 @@
       </c>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="88" t="s">
+      <c r="A38" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="89">
-        <v>0</v>
-      </c>
-      <c r="C38" s="97">
+      <c r="B38" s="86">
+        <v>0</v>
+      </c>
+      <c r="C38" s="94">
         <v>0</v>
       </c>
       <c r="E38">
@@ -7224,13 +7224,13 @@
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="89">
-        <v>0</v>
-      </c>
-      <c r="C39" s="97">
+      <c r="B39" s="86">
+        <v>0</v>
+      </c>
+      <c r="C39" s="94">
         <v>0</v>
       </c>
       <c r="E39">
@@ -7264,10 +7264,10 @@
       <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="99">
-        <v>0</v>
-      </c>
-      <c r="D40" s="94" t="s">
+      <c r="C40" s="96">
+        <v>0</v>
+      </c>
+      <c r="D40" s="91" t="s">
         <v>65</v>
       </c>
       <c r="E40" s="9">
@@ -7304,13 +7304,13 @@
       </c>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="88" t="s">
+      <c r="A41" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="89">
-        <v>0</v>
-      </c>
-      <c r="C41" s="97">
+      <c r="B41" s="86">
+        <v>0</v>
+      </c>
+      <c r="C41" s="94">
         <v>0</v>
       </c>
       <c r="E41">
@@ -7331,23 +7331,23 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N41" s="91">
+      <c r="M41" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" s="88">
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="88" t="s">
+      <c r="A42" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="89">
-        <v>0</v>
-      </c>
-      <c r="C42" s="97">
+      <c r="B42" s="86">
+        <v>0</v>
+      </c>
+      <c r="C42" s="94">
         <v>0</v>
       </c>
       <c r="E42">
@@ -7381,7 +7381,7 @@
       <c r="B43" s="3">
         <v>0</v>
       </c>
-      <c r="C43" s="96">
+      <c r="C43" s="93">
         <v>0</v>
       </c>
       <c r="E43" s="7">
@@ -7421,7 +7421,7 @@
       <c r="B44" s="3">
         <v>0</v>
       </c>
-      <c r="C44" s="96">
+      <c r="C44" s="93">
         <v>0</v>
       </c>
       <c r="E44" s="7">
@@ -7461,10 +7461,10 @@
       <c r="B45" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="101">
-        <v>0</v>
-      </c>
-      <c r="D45" s="95" t="s">
+      <c r="C45" s="98">
+        <v>0</v>
+      </c>
+      <c r="D45" s="92" t="s">
         <v>76</v>
       </c>
       <c r="E45" s="5">
@@ -7507,7 +7507,7 @@
       <c r="B46" s="1">
         <v>4</v>
       </c>
-      <c r="C46" s="101">
+      <c r="C46" s="98">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -7547,13 +7547,13 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="89">
-        <v>0</v>
-      </c>
-      <c r="C47" s="97">
+      <c r="B47" s="86">
+        <v>0</v>
+      </c>
+      <c r="C47" s="94">
         <v>0</v>
       </c>
       <c r="E47">
@@ -7574,15 +7574,15 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" s="103" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="103">
+      <c r="M47" s="100" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N47" s="100">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="O47" s="103">
+      <c r="O47" s="100">
         <v>1</v>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       <c r="B48" s="2">
         <v>1</v>
       </c>
-      <c r="C48" s="99">
+      <c r="C48" s="96">
         <v>0</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -7633,13 +7633,13 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="6" customFormat="1">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="88">
-        <v>0</v>
-      </c>
-      <c r="C49" s="104">
+      <c r="B49" s="85">
+        <v>0</v>
+      </c>
+      <c r="C49" s="101">
         <v>0</v>
       </c>
       <c r="E49" s="6">
@@ -7660,11 +7660,11 @@
       <c r="L49" s="6">
         <v>0</v>
       </c>
-      <c r="M49" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="91">
+      <c r="M49" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N49" s="88">
         <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
@@ -7676,10 +7676,10 @@
       <c r="B50" s="1">
         <v>4</v>
       </c>
-      <c r="C50" s="101">
-        <v>0</v>
-      </c>
-      <c r="D50" s="95" t="s">
+      <c r="C50" s="98">
+        <v>0</v>
+      </c>
+      <c r="D50" s="92" t="s">
         <v>90</v>
       </c>
       <c r="E50" s="5">
@@ -7716,13 +7716,13 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="6" customFormat="1">
-      <c r="A51" s="88" t="s">
+      <c r="A51" s="85" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="88">
-        <v>0</v>
-      </c>
-      <c r="C51" s="104">
+      <c r="B51" s="85">
+        <v>0</v>
+      </c>
+      <c r="C51" s="101">
         <v>0</v>
       </c>
       <c r="E51" s="6">
@@ -7743,11 +7743,11 @@
       <c r="L51" s="6">
         <v>0</v>
       </c>
-      <c r="M51" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N51" s="91">
+      <c r="M51" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N51" s="88">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -7759,7 +7759,7 @@
       <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="C52" s="96">
+      <c r="C52" s="93">
         <v>6</v>
       </c>
       <c r="D52" s="7" t="s">
@@ -7802,7 +7802,7 @@
       <c r="B53" s="3">
         <v>0</v>
       </c>
-      <c r="C53" s="96">
+      <c r="C53" s="93">
         <v>0</v>
       </c>
       <c r="E53" s="7">
@@ -7842,7 +7842,7 @@
       <c r="B54" s="3">
         <v>0</v>
       </c>
-      <c r="C54" s="96">
+      <c r="C54" s="93">
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
@@ -7885,10 +7885,10 @@
       <c r="B55" s="3">
         <v>0</v>
       </c>
-      <c r="C55" s="96">
+      <c r="C55" s="93">
         <v>11</v>
       </c>
-      <c r="D55" s="98" t="s">
+      <c r="D55" s="95" t="s">
         <v>102</v>
       </c>
       <c r="E55" s="7">
@@ -7928,7 +7928,7 @@
       <c r="B56" s="1">
         <v>7</v>
       </c>
-      <c r="C56" s="101">
+      <c r="C56" s="98">
         <v>0</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -7968,13 +7968,13 @@
       </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B57" s="89">
-        <v>0</v>
-      </c>
-      <c r="C57" s="105">
+      <c r="B57" s="86">
+        <v>0</v>
+      </c>
+      <c r="C57" s="102">
         <v>0</v>
       </c>
       <c r="E57">
@@ -8002,13 +8002,13 @@
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="89">
-        <v>0</v>
-      </c>
-      <c r="C58" s="97">
+      <c r="B58" s="86">
+        <v>0</v>
+      </c>
+      <c r="C58" s="94">
         <v>0</v>
       </c>
       <c r="E58">
@@ -8029,11 +8029,11 @@
       <c r="L58">
         <v>0</v>
       </c>
-      <c r="M58" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N58" s="91">
+      <c r="M58" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N58" s="88">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -8045,7 +8045,7 @@
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="96">
+      <c r="C59" s="93">
         <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
@@ -8091,7 +8091,7 @@
       <c r="B60" s="3">
         <v>3</v>
       </c>
-      <c r="C60" s="96">
+      <c r="C60" s="93">
         <v>36</v>
       </c>
       <c r="D60" s="7" t="s">
@@ -8137,7 +8137,7 @@
       <c r="B61" s="3">
         <v>0</v>
       </c>
-      <c r="C61" s="96">
+      <c r="C61" s="93">
         <v>21</v>
       </c>
       <c r="D61" s="7" t="s">
@@ -8174,13 +8174,13 @@
       </c>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="B62" s="89">
-        <v>0</v>
-      </c>
-      <c r="C62" s="97">
+      <c r="B62" s="86">
+        <v>0</v>
+      </c>
+      <c r="C62" s="94">
         <v>0</v>
       </c>
       <c r="E62">
@@ -8201,11 +8201,11 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="M62" s="91" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N62" s="91">
+      <c r="M62" s="88" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N62" s="88">
         <f t="shared" si="1"/>
         <v>0.16666666666666666</v>
       </c>
@@ -8217,7 +8217,7 @@
       <c r="B63" s="3">
         <v>0</v>
       </c>
-      <c r="C63" s="96">
+      <c r="C63" s="93">
         <v>0</v>
       </c>
       <c r="E63" s="7">
@@ -8257,7 +8257,7 @@
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="96">
+      <c r="C64" s="93">
         <v>10</v>
       </c>
       <c r="D64" s="7" t="s">
@@ -8303,7 +8303,7 @@
       <c r="B65" s="3">
         <v>0</v>
       </c>
-      <c r="C65" s="96">
+      <c r="C65" s="93">
         <v>0</v>
       </c>
       <c r="E65" s="7">
@@ -8343,7 +8343,7 @@
       <c r="B66" s="3">
         <v>10</v>
       </c>
-      <c r="C66" s="96">
+      <c r="C66" s="93">
         <v>8</v>
       </c>
       <c r="D66" s="7" t="s">
@@ -8392,7 +8392,7 @@
       <c r="B67" s="1">
         <v>3</v>
       </c>
-      <c r="C67" s="101">
+      <c r="C67" s="98">
         <v>0</v>
       </c>
       <c r="D67" s="5" t="s">
@@ -8435,7 +8435,7 @@
       <c r="B68" s="1">
         <v>15</v>
       </c>
-      <c r="C68" s="101">
+      <c r="C68" s="98">
         <v>0</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -8484,7 +8484,7 @@
       <c r="B69" s="3">
         <v>0</v>
       </c>
-      <c r="C69" s="96">
+      <c r="C69" s="93">
         <v>0</v>
       </c>
       <c r="E69" s="7">
@@ -8518,13 +8518,13 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="89">
-        <v>0</v>
-      </c>
-      <c r="C70" s="97">
+      <c r="B70" s="86">
+        <v>0</v>
+      </c>
+      <c r="C70" s="94">
         <v>0</v>
       </c>
       <c r="E70">
@@ -8564,7 +8564,7 @@
       <c r="B71" s="3">
         <v>0</v>
       </c>
-      <c r="C71" s="96">
+      <c r="C71" s="93">
         <v>0</v>
       </c>
       <c r="E71" s="7">
@@ -8604,7 +8604,7 @@
       <c r="B72" s="3">
         <v>0</v>
       </c>
-      <c r="C72" s="96">
+      <c r="C72" s="93">
         <v>0</v>
       </c>
       <c r="E72" s="7">
@@ -8664,7 +8664,7 @@
       </c>
       <c r="L73">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M73" s="7"/>
       <c r="O73">

--- a/real-life-results_ExceLint-MTExcel.xlsx
+++ b/real-life-results_ExceLint-MTExcel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="262">
   <si>
     <t>MR</t>
   </si>
@@ -1396,34 +1396,13 @@
     <t>3A5B</t>
   </si>
   <si>
-    <t>30A169B8C3D56E</t>
-  </si>
-  <si>
-    <t>36A6C</t>
-  </si>
-  <si>
-    <t>29A10C</t>
-  </si>
-  <si>
-    <t>参考值</t>
-  </si>
-  <si>
-    <t>缺公式</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>多一个常数</t>
-  </si>
-  <si>
     <t>error</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>常数不同</t>
   </si>
   <si>
     <t>E</t>
@@ -1599,6 +1578,74 @@
         <scheme val="minor"/>
       </rPr>
       <t>TExcel</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ref</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>erence error</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>issing formula</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ncorrect calculation</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ncorrect constants</t>
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2475,8 +2522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R78"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5744,8 +5791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView tabSelected="1" topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -5767,23 +5814,23 @@
       </c>
       <c r="C1" s="107"/>
       <c r="E1" s="108" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F1" s="107"/>
       <c r="G1" s="103" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="H1" s="103" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I1" s="84" t="s">
         <v>199</v>
       </c>
       <c r="J1" s="104" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -5806,19 +5853,19 @@
         <v>7</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H2" t="s">
         <v>200</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
         <v>201</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P2">
         <f>(M9+M19+M23+M25+M26+M31+M32+M34+M35+M36+M37+M40+M45+M46+M48+M50+M52+M54+M55+M56+M59+M60+M61+M64+M66+M67+M68)/27</f>
@@ -8699,31 +8746,23 @@
     </row>
     <row r="77" spans="1:15">
       <c r="G77" s="13" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="G78" t="s">
-        <v>243</v>
-      </c>
-      <c r="H78" t="s">
-        <v>244</v>
-      </c>
-      <c r="I78" t="s">
-        <v>245</v>
-      </c>
+      <c r="G78" s="13"/>
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="E79" t="s">
-        <v>246</v>
+      <c r="E79" s="13" t="s">
+        <v>258</v>
       </c>
       <c r="F79" t="s">
         <v>202</v>
@@ -8732,18 +8771,18 @@
         <v>30</v>
       </c>
       <c r="H79">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I79">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:15">
-      <c r="E80" t="s">
-        <v>247</v>
+      <c r="E80" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="F80" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G80">
         <v>169</v>
@@ -8753,8 +8792,8 @@
       </c>
     </row>
     <row r="81" spans="5:12">
-      <c r="E81" t="s">
-        <v>249</v>
+      <c r="E81" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="F81" t="s">
         <v>205</v>
@@ -8763,10 +8802,10 @@
         <v>9</v>
       </c>
       <c r="H81">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I81">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K81">
         <v>19</v>
@@ -8777,38 +8816,38 @@
     </row>
     <row r="82" spans="5:12">
       <c r="E82" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F82" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G82">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="5:12">
-      <c r="E83" t="s">
-        <v>252</v>
+      <c r="E83" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="F83" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G83">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="5:12">
       <c r="G84">
         <f>SUM(G79:G83)</f>
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H84">
         <f>SUM(H79:H83)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I84">
         <f>SUM(I79:I83)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="5:12">
